--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/knowledgebase-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/knowledgebase-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A48D6A44-818D-7247-ABFC-15149D57E98A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="5020" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="160" yWindow="4620" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
     <sheet name="IAM_DASHBOARD" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -157,9 +158,6 @@
   </si>
   <si>
     <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.queryFirstTree</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.queryFirstTree</t>
@@ -489,12 +487,20 @@
     <t>$DEL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryAllTreeList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -855,14 +861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O10" sqref="O10:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -880,7 +886,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,10 +921,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -976,9 +982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1008,21 +1014,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15">
       <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -1040,21 +1046,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -1084,14 +1090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
@@ -1106,7 +1112,7 @@
     <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1132,25 +1138,25 @@
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
         <v>70</v>
       </c>
-      <c r="P7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="4:17" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1179,12 +1185,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:17">
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
         <v>34</v>
@@ -1211,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:17" ht="12.75" customHeight="1">
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1240,12 +1246,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:17">
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>34</v>
@@ -1272,9 +1278,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:17">
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -1301,30 +1307,30 @@
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:17">
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -1339,24 +1345,24 @@
         <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:17">
       <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
         <v>79</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
         <v>30</v>
@@ -1368,7 +1374,7 @@
         <v>31</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O14">
         <v>60</v>
@@ -1377,24 +1383,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:17">
       <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>84</v>
       </c>
-      <c r="H15" t="s">
-        <v>85</v>
-      </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
@@ -1403,7 +1409,7 @@
         <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O15">
         <v>10</v>
@@ -1412,18 +1418,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:17">
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
         <v>80</v>
       </c>
-      <c r="H16" t="s">
-        <v>81</v>
-      </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
         <v>38</v>
@@ -1435,7 +1441,7 @@
         <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O16">
         <v>70</v>
@@ -1444,24 +1450,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:17">
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s">
         <v>19</v>
@@ -1470,7 +1476,7 @@
         <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17">
         <v>10</v>
@@ -1491,14 +1497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H26"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
@@ -1508,9 +1514,9 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1522,207 +1528,207 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
         <v>94</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
         <v>95</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
         <v>96</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
         <v>97</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
         <v>99</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
         <v>100</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
         <v>101</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
         <v>102</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
         <v>103</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
         <v>104</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" t="s">
         <v>105</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
         <v>106</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" t="s">
         <v>107</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
         <v>108</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1740,14 +1746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="22.19921875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
@@ -1755,29 +1761,29 @@
     <col min="8" max="8" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="F8" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="F8" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>27</v>
@@ -1786,42 +1792,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:9">
       <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
         <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:9">
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>37</v>
@@ -1830,20 +1836,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:9">
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:9">
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>37</v>
@@ -1852,96 +1858,96 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:9">
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9">
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" t="s">
         <v>90</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F18" t="s">
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9">
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
         <v>87</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H21" t="s">
         <v>92</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" t="s">
-        <v>93</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1954,14 +1960,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="10.59765625" customWidth="1"/>
@@ -1975,9 +1981,9 @@
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:19">
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -1986,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>22</v>
@@ -1995,13 +2001,13 @@
         <v>23</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>6</v>
@@ -2010,52 +2016,52 @@
         <v>26</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="4:19" ht="14" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" ht="14">
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="I8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="O8" s="4">
         <v>3</v>
@@ -2067,43 +2073,43 @@
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:19" ht="14">
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="O9" s="4">
         <v>5</v>
@@ -2115,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:19">
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2139,7 +2145,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:19">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/knowledgebase-service/src/main/resources/script/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/knowledgebase-service/src/main/resources/script/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A48D6A44-818D-7247-ABFC-15149D57E98A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="4620" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
     <sheet name="IAM_DASHBOARD" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -495,12 +494,67 @@
     <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>知识库</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ku</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.cooperate.knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.cooperate.knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作</t>
+    <rPh sb="0" eb="1">
+      <t>xie'zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.cooperate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooperate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库路由</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shi'ku</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lu'yuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryAllTree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -861,21 +915,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10:O12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="53.59765625" customWidth="1"/>
     <col min="7" max="7" width="41.796875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="21.59765625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
@@ -886,7 +940,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:15">
+    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -952,8 +1006,11 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="4:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -981,8 +1038,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="4:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>52</v>
       </c>
@@ -1014,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
@@ -1046,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>75</v>
       </c>
@@ -1076,6 +1136,35 @@
       </c>
       <c r="O12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1090,14 +1179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
@@ -1106,13 +1195,13 @@
     <col min="7" max="7" width="16.796875" customWidth="1"/>
     <col min="8" max="8" width="35.796875" customWidth="1"/>
     <col min="9" max="9" width="49.3984375" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" customWidth="1"/>
+    <col min="10" max="10" width="21.796875" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
     <col min="12" max="12" width="19.19921875" customWidth="1"/>
     <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:17" ht="12.75" customHeight="1">
+    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1184,8 +1273,11 @@
       <c r="O8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="4:17">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>63</v>
       </c>
@@ -1216,8 +1308,11 @@
       <c r="O9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="4:17" ht="12.75" customHeight="1">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1245,8 +1340,11 @@
       <c r="O10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="4:17">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>64</v>
       </c>
@@ -1277,8 +1375,11 @@
       <c r="O11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="4:17">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1313,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>65</v>
       </c>
@@ -1351,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1383,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>82</v>
       </c>
@@ -1418,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>86</v>
       </c>
@@ -1450,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:17">
+    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>87</v>
       </c>
@@ -1483,6 +1584,67 @@
       </c>
       <c r="Q17">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1497,14 +1659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
@@ -1514,7 +1676,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1531,23 +1693,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1">
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="4:8">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="4:8">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>51</v>
       </c>
@@ -1558,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>82</v>
       </c>
@@ -1569,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>82</v>
       </c>
@@ -1580,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>82</v>
       </c>
@@ -1591,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>82</v>
       </c>
@@ -1602,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>82</v>
       </c>
@@ -1613,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>82</v>
       </c>
@@ -1624,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>82</v>
       </c>
@@ -1635,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>82</v>
       </c>
@@ -1646,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>87</v>
       </c>
@@ -1657,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>87</v>
       </c>
@@ -1668,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>87</v>
       </c>
@@ -1679,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>87</v>
       </c>
@@ -1690,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>87</v>
       </c>
@@ -1701,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
         <v>87</v>
       </c>
@@ -1712,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:8">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>87</v>
       </c>
@@ -1723,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>87</v>
       </c>
@@ -1732,6 +1900,14 @@
       </c>
       <c r="H26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1746,14 +1922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="22.19921875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
@@ -1761,7 +1937,7 @@
     <col min="8" max="8" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1781,7 +1957,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1792,7 +1968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
@@ -1802,8 +1978,11 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="4:9">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>62</v>
       </c>
@@ -1813,8 +1992,11 @@
       <c r="H10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="4:9">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1824,8 +2006,11 @@
       <c r="H11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="4:9">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>66</v>
       </c>
@@ -1835,8 +2020,11 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="4:9">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1846,8 +2034,11 @@
       <c r="H13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="4:9">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
@@ -1857,8 +2048,11 @@
       <c r="H14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="4:9">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1868,8 +2062,11 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="4:9">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>88</v>
       </c>
@@ -1883,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:9">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>88</v>
       </c>
@@ -1897,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:9">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>90</v>
       </c>
@@ -1911,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:9">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>90</v>
       </c>
@@ -1925,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="6:9">
+    <row r="20" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>88</v>
       </c>
@@ -1939,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="6:9">
+    <row r="21" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>88</v>
       </c>
@@ -1951,6 +2148,39 @@
       </c>
       <c r="I21">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1960,14 +2190,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="21.19921875" customWidth="1"/>
     <col min="5" max="5" width="10.59765625" customWidth="1"/>
@@ -1981,7 +2211,7 @@
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:19">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D7" s="4" t="s">
         <v>109</v>
       </c>
@@ -2031,7 +2261,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="4:19" ht="14">
+    <row r="8" spans="4:19" ht="14" x14ac:dyDescent="0.15">
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>118</v>
@@ -2079,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:19" ht="14">
+    <row r="9" spans="4:19" ht="14" x14ac:dyDescent="0.15">
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -2127,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:19">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2145,7 +2375,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="4:19">
+    <row r="11" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -919,7 +919,7 @@
   <dimension ref="D7:O13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C14" sqref="A14:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1183,7 +1183,7 @@
   <dimension ref="D7:Q19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E20" sqref="A20:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1925,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2191,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:S11"/>
+  <dimension ref="D7:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2357,42 +2357,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="4:19" x14ac:dyDescent="0.15">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="136">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -521,21 +521,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>协作</t>
-    <rPh sb="0" eb="1">
-      <t>xie'zuo</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.cooperate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooperate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>知识库路由</t>
     <rPh sb="0" eb="1">
       <t>zhi'shi'ku</t>
@@ -547,6 +532,10 @@
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.queryAllTree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -919,7 +908,7 @@
   <dimension ref="D7:O13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="A14:XFD34"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1152,7 +1141,7 @@
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -1180,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q19"/>
+  <dimension ref="D7:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E20" sqref="A20:XFD38"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1588,62 +1577,33 @@
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+      <c r="I18" t="s">
+        <v>131</v>
       </c>
       <c r="J18" t="s">
         <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N18" t="s">
         <v>36</v>
       </c>
       <c r="O18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19">
         <v>60</v>
       </c>
     </row>
@@ -1662,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD53"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1907,7 +1867,7 @@
         <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1925,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD51"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2194,7 +2154,7 @@
   <dimension ref="D7:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SORT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$DEL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -280,6 +276,10 @@
   <si>
     <t>GENERAL</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -702,24 +702,24 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -803,33 +803,33 @@
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -887,15 +887,15 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -942,7 +942,7 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.15">
@@ -950,7 +950,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -969,21 +969,21 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1019,7 +1019,7 @@
   <sheetData>
     <row r="7" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>16</v>
@@ -1037,13 +1037,13 @@
         <v>17</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>6</v>
@@ -1052,52 +1052,52 @@
         <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="4:19" ht="14" x14ac:dyDescent="0.15">
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="I8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="O8" s="4">
         <v>3</v>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
@@ -1118,34 +1118,34 @@
     <row r="9" spans="4:19" ht="14" x14ac:dyDescent="0.15">
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="O9" s="4">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S9" s="4">
         <v>1</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -280,6 +280,10 @@
   <si>
     <t>@SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -749,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -911,10 +915,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I11"/>
+  <dimension ref="D7:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -987,6 +991,17 @@
       </c>
       <c r="H11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
-    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
-    <sheet name="IAM_DASHBOARD" sheetId="5" r:id="rId5"/>
+    <sheet name="IAM_ROLE_PERMISSION" sheetId="6" r:id="rId3"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId5"/>
+    <sheet name="IAM_DASHBOARD" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -283,6 +284,26 @@
   </si>
   <si>
     <t>OFFICIAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_ROLE_PERMISSION</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ROLE_CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/administrator</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +775,7 @@
   <dimension ref="D7:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -861,6 +882,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="36.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" customWidth="1"/>
+    <col min="7" max="7" width="37.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -913,11 +978,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1010,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:S9"/>
   <sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -303,7 +303,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>role/project/default/administrator</t>
+    <t>role/project/default/project-owner</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +885,7 @@
   <dimension ref="D7:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>knowledgebase-service.work-space-project.queryAllTree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon.code.project.cooperation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -305,6 +301,18 @@
   <si>
     <t>role/project/default/project-owner</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.cooperate.knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.cooperate.knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -775,7 +783,7 @@
   <dimension ref="D7:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -828,7 +836,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
@@ -839,7 +847,7 @@
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
         <v>57</v>
@@ -854,7 +862,7 @@
         <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -884,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -898,21 +906,21 @@
   <sheetData>
     <row r="7" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>60</v>
@@ -928,14 +936,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="55.3984375" customWidth="1"/>
     <col min="7" max="7" width="69.3984375" customWidth="1"/>
@@ -961,10 +969,10 @@
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1057,7 @@
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
@@ -1060,7 +1068,7 @@
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
         <v>59</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -934,10 +934,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H8"/>
+  <dimension ref="D7:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -973,6 +973,14 @@
       </c>
       <c r="G8" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -313,6 +313,10 @@
   <si>
     <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -678,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -761,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -890,10 +894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G8"/>
+  <dimension ref="D7:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -926,6 +930,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/knowledgebase-service/src/main/resources/script/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="20544" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -311,19 +311,249 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>role/project/default/project-member</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.queryAllSpaceByOptions</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.createWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.queryAllTreeList</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.deleteWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.querySpaceByIds</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.recentUpdateList</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.recycleWorkspaceTree</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.removeWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.removeWorkSpaceAndPageByMyWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.restoreWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.moveWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.queryWorkSpaceInfo</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-project.updateWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-project.create</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-project.deleteMyComment</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-project.queryByPageId</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-project.update</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-project.deleteComment</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-project.createPageByImport</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-project.autoSavePage</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-project.deleteDraftContent</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-project.queryDraftPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-project.exportMd2Pdf</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-project.fullTextSearch</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-project.importDocx2Md</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-project.create</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-project.batchDelete</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-project.queryByList</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-project.queryByFileName</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-project.uploadForAddress</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-project.delete</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-version-project.compareVersion</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-version-project.listQuery</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-version-project.rollbackVersion</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-version-project.queryById</t>
+  </si>
+  <si>
+    <t>knowledge-service.user-setting-project.createOrUpdate</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-share-project.queryShare</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-share-project.updateShare</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-log-project.listByPageId</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.queryAllSpaceByOptions</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.createWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.queryAllTreeList</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.deleteWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.querySpaceByIds</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.recentUpdateList</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.recycleWorkspaceTree</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.removeWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.removeWorkSpaceAndPageByMyWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.restoreWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.moveWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.queryWorkSpaceInfo</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-organization.updateWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-organization.create</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-organization.deleteMyComment</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-organization.queryByPageId</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-organization.update</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-comment-organization.deleteComment</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-organization.createPageByImport</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-organization.autoSavePage</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-organization.deleteDraftContent</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-organization.queryDraftPage</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-organization.exportMd2Pdf</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-organization.fullTextSearch</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-organization.importDocx2Md</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-organization.create</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-organization.batchDelete</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-organization.queryByList</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-organization.queryByFileName</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-organization.uploadForAddress</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-attachment-organization.delete</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-version-organization.compareVersion</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-version-organization.listQuery</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-version-organization.rollbackVersion</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-version-organization.queryById</t>
+  </si>
+  <si>
+    <t>knowledge-service.user-setting-organization.createOrUpdate</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-share-organization.queryShare</t>
+  </si>
+  <si>
+    <t>knowledge-service.work-space-share-organization.updateShare</t>
+  </si>
+  <si>
+    <t>knowledge-service.page-log-organization.listByPageId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -343,7 +573,7 @@
     <font>
       <sz val="9"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -682,29 +912,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="53.59765625" customWidth="1"/>
-    <col min="7" max="7" width="41.796875" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="53.5546875" customWidth="1"/>
+    <col min="7" max="7" width="41.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.59765625" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>60</v>
       </c>
@@ -790,22 +1020,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="45.3984375" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" customWidth="1"/>
-    <col min="8" max="8" width="35.796875" customWidth="1"/>
-    <col min="9" max="9" width="49.3984375" customWidth="1"/>
-    <col min="10" max="10" width="21.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" customWidth="1"/>
+    <col min="9" max="9" width="49.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
@@ -849,7 +1079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:17">
       <c r="F8" t="s">
         <v>73</v>
       </c>
@@ -900,15 +1130,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="36.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="29.3984375" customWidth="1"/>
-    <col min="7" max="7" width="37.59765625" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" ht="13.8">
       <c r="D7" s="1" t="s">
         <v>68</v>
       </c>
@@ -922,7 +1152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:7" ht="13.05">
       <c r="F8" t="s">
         <v>71</v>
       </c>
@@ -930,9 +1160,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:7" ht="13.05">
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
         <v>60</v>
@@ -946,23 +1176,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H9"/>
+  <dimension ref="D7:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="55.3984375" customWidth="1"/>
-    <col min="7" max="7" width="69.3984375" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
@@ -979,20 +1209,636 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7">
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="6:7">
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7">
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7">
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7">
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7">
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7">
+      <c r="F57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7">
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7">
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7">
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7">
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7">
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7">
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7">
+      <c r="F64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7">
+      <c r="F65" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7">
+      <c r="F66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7">
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7">
+      <c r="F68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7">
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7">
+      <c r="F70" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7">
+      <c r="F71" t="s">
+        <v>59</v>
+      </c>
+      <c r="G71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7">
+      <c r="F72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7">
+      <c r="F73" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7">
+      <c r="F74" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7">
+      <c r="F75" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7">
+      <c r="F76" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7">
+      <c r="F77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7">
+      <c r="F78" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7">
+      <c r="F79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7">
+      <c r="F80" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7">
+      <c r="F81" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="F85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="F86" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1014,15 +1860,15 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="39.59765625" customWidth="1"/>
-    <col min="8" max="8" width="21.796875" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:9" ht="13.8">
       <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1042,7 +1888,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:9" ht="13.8">
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1053,7 +1899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:9" ht="13.8">
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1064,7 +1910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:9" ht="13.05">
       <c r="F10" t="s">
         <v>38</v>
       </c>
@@ -1075,7 +1921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:9" ht="13.05">
       <c r="F11" t="s">
         <v>64</v>
       </c>
@@ -1086,7 +1932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:9" ht="13.05">
       <c r="F12" t="s">
         <v>66</v>
       </c>
@@ -1111,21 +1957,21 @@
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.796875" customWidth="1"/>
-    <col min="13" max="13" width="18.796875" customWidth="1"/>
-    <col min="16" max="16" width="17.19921875" customWidth="1"/>
-    <col min="17" max="17" width="14.796875" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" customWidth="1"/>
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:19">
       <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1175,7 +2021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="4:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:19">
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>49</v>
@@ -1223,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:19" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:19">
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>37</v>
@@ -1274,5 +2120,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="122" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="155">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -315,245 +315,253 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>knowledge-service.work-space-project.queryAllSpaceByOptions</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.createWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.queryAllTreeList</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.deleteWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.querySpaceByIds</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.recentUpdateList</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.recycleWorkspaceTree</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.removeWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.removeWorkSpaceAndPageByMyWorkSpace</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.restoreWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.moveWorkSpace</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.queryWorkSpaceInfo</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-project.updateWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-project.create</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-project.deleteMyComment</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-project.queryByPageId</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-project.update</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-project.deleteComment</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-project.createPageByImport</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-project.autoSavePage</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-project.deleteDraftContent</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-project.queryDraftPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-project.exportMd2Pdf</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-project.fullTextSearch</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-project.importDocx2Md</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-project.create</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-project.batchDelete</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-project.queryByList</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-project.queryByFileName</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-project.uploadForAddress</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-project.delete</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-version-project.compareVersion</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-version-project.listQuery</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-version-project.rollbackVersion</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-version-project.queryById</t>
-  </si>
-  <si>
-    <t>knowledge-service.user-setting-project.createOrUpdate</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-share-project.queryShare</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-share-project.updateShare</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-log-project.listByPageId</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.queryAllSpaceByOptions</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.createWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.queryAllTreeList</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.deleteWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.querySpaceByIds</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.recentUpdateList</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.recycleWorkspaceTree</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.removeWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.removeWorkSpaceAndPageByMyWorkSpace</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.restoreWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.moveWorkSpace</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.queryWorkSpaceInfo</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-organization.updateWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-organization.create</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-organization.deleteMyComment</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-organization.queryByPageId</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-organization.update</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-comment-organization.deleteComment</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-organization.createPageByImport</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-organization.autoSavePage</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-organization.deleteDraftContent</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-organization.queryDraftPage</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-organization.exportMd2Pdf</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-organization.fullTextSearch</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-organization.importDocx2Md</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-organization.create</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-organization.batchDelete</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-organization.queryByList</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-organization.queryByFileName</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-organization.uploadForAddress</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-attachment-organization.delete</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-version-organization.compareVersion</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-version-organization.listQuery</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-version-organization.rollbackVersion</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-version-organization.queryById</t>
-  </si>
-  <si>
-    <t>knowledge-service.user-setting-organization.createOrUpdate</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-share-organization.queryShare</t>
-  </si>
-  <si>
-    <t>knowledge-service.work-space-share-organization.updateShare</t>
-  </si>
-  <si>
-    <t>knowledge-service.page-log-organization.listByPageId</t>
+    <t>choerodon.code.cooperate.knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryAllSpaceByOptions</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.createWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryAllTreeList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.deleteWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.querySpaceByIds</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.recentUpdateList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.recycleWorkspaceTree</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.removeWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.removeWorkSpaceAndPageByMyWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.restoreWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.moveWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryWorkSpaceInfo</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.updateWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-project.create</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-project.deleteMyComment</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-project.queryByPageId</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-project.update</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-project.deleteComment</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.createPageByImport</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.autoSavePage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.deleteDraftContent</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.queryDraftPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.exportMd2Pdf</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.fullTextSearch</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-project.importDocx2Md</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-project.create</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-project.batchDelete</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-project.queryByList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-project.queryByFileName</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-project.uploadForAddress</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-project.delete</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-project.compareVersion</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-project.listQuery</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-project.rollbackVersion</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-project.queryById</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.user-setting-project.createOrUpdate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-share-project.queryShare</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-share-project.updateShare</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-log-project.listByPageId</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryAllSpaceByOptions</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.createWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryAllTreeList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.deleteWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.querySpaceByIds</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.recentUpdateList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.recycleWorkspaceTree</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.removeWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.removeWorkSpaceAndPageByMyWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.restoreWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.moveWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryWorkSpaceInfo</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.updateWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.create</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.deleteMyComment</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.queryByPageId</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.update</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.deleteComment</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.createPageByImport</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.autoSavePage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.deleteDraftContent</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.queryDraftPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.exportMd2Pdf</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.fullTextSearch</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.importDocx2Md</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.create</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.batchDelete</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.queryByList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.queryByFileName</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.uploadForAddress</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.delete</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-organization.compareVersion</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-organization.listQuery</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-organization.rollbackVersion</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-organization.queryById</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.user-setting-organization.createOrUpdate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-share-organization.queryShare</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-share-organization.updateShare</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-log-organization.listByPageId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -581,6 +589,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -602,12 +615,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1016,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1029,7 +1043,7 @@
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="35.77734375" customWidth="1"/>
     <col min="9" max="9" width="49.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="34.44140625" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
     <col min="12" max="12" width="19.21875" customWidth="1"/>
     <col min="13" max="1025" width="11.5546875" customWidth="1"/>
@@ -1092,8 +1106,8 @@
       <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
-        <v>61</v>
+      <c r="J8" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="K8" t="s">
         <v>63</v>
@@ -1127,14 +1141,14 @@
   <dimension ref="D7:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
     <col min="4" max="4" width="36.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
     <col min="7" max="7" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1152,7 +1166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="13.05">
+    <row r="8" spans="4:7">
       <c r="F8" t="s">
         <v>71</v>
       </c>
@@ -1160,7 +1174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="13.05">
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>74</v>
       </c>
@@ -1178,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="G95" sqref="G94:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1218,11 +1232,11 @@
       </c>
     </row>
     <row r="9" spans="4:8">
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="5" t="s">
         <v>75</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="4:8">
@@ -1230,7 +1244,7 @@
         <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="4:8">
@@ -1238,7 +1252,7 @@
         <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="4:8">
@@ -1246,7 +1260,7 @@
         <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="4:8">
@@ -1254,7 +1268,7 @@
         <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="4:8">
@@ -1262,7 +1276,7 @@
         <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="4:8">
@@ -1270,7 +1284,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="4:8">
@@ -1278,7 +1292,7 @@
         <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="6:7">
@@ -1286,7 +1300,7 @@
         <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="6:7">
@@ -1294,7 +1308,7 @@
         <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="6:7">
@@ -1302,7 +1316,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -1310,7 +1324,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -1318,7 +1332,7 @@
         <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -1326,7 +1340,7 @@
         <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="6:7">
@@ -1334,7 +1348,7 @@
         <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="6:7">
@@ -1342,7 +1356,7 @@
         <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -1350,7 +1364,7 @@
         <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="6:7">
@@ -1358,7 +1372,7 @@
         <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="6:7">
@@ -1366,7 +1380,7 @@
         <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="6:7">
@@ -1374,7 +1388,7 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="6:7">
@@ -1382,7 +1396,7 @@
         <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="6:7">
@@ -1390,7 +1404,7 @@
         <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="6:7">
@@ -1398,7 +1412,7 @@
         <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="6:7">
@@ -1406,7 +1420,7 @@
         <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="6:7">
@@ -1414,7 +1428,7 @@
         <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="6:7">
@@ -1422,7 +1436,7 @@
         <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="6:7">
@@ -1430,7 +1444,7 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="6:7">
@@ -1438,7 +1452,7 @@
         <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="6:7">
@@ -1446,7 +1460,7 @@
         <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="6:7">
@@ -1454,7 +1468,7 @@
         <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="6:7">
@@ -1462,7 +1476,7 @@
         <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="6:7">
@@ -1470,7 +1484,7 @@
         <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="6:7">
@@ -1478,7 +1492,7 @@
         <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="6:7">
@@ -1486,7 +1500,7 @@
         <v>59</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="6:7">
@@ -1494,7 +1508,7 @@
         <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="6:7">
@@ -1502,7 +1516,7 @@
         <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="6:7">
@@ -1510,7 +1524,7 @@
         <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="6:7">
@@ -1518,7 +1532,7 @@
         <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="6:7">
@@ -1526,7 +1540,7 @@
         <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="6:7">
@@ -1534,7 +1548,7 @@
         <v>59</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="6:7">
@@ -1542,7 +1556,7 @@
         <v>59</v>
       </c>
       <c r="G49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="6:7">
@@ -1550,7 +1564,7 @@
         <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="6:7">
@@ -1558,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="6:7">
@@ -1566,7 +1580,7 @@
         <v>59</v>
       </c>
       <c r="G52" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="6:7">
@@ -1574,7 +1588,7 @@
         <v>59</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="6:7">
@@ -1582,7 +1596,7 @@
         <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="6:7">
@@ -1590,7 +1604,7 @@
         <v>59</v>
       </c>
       <c r="G55" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="6:7">
@@ -1598,7 +1612,7 @@
         <v>59</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="6:7">
@@ -1606,7 +1620,7 @@
         <v>59</v>
       </c>
       <c r="G57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="6:7">
@@ -1614,7 +1628,7 @@
         <v>59</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="6:7">
@@ -1622,7 +1636,7 @@
         <v>59</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="6:7">
@@ -1630,7 +1644,7 @@
         <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="6:7">
@@ -1638,7 +1652,7 @@
         <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="6:7">
@@ -1646,7 +1660,7 @@
         <v>59</v>
       </c>
       <c r="G62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="6:7">
@@ -1654,7 +1668,7 @@
         <v>59</v>
       </c>
       <c r="G63" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="6:7">
@@ -1662,7 +1676,7 @@
         <v>59</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="6:7">
@@ -1670,7 +1684,7 @@
         <v>59</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="6:7">
@@ -1678,7 +1692,7 @@
         <v>59</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="6:7">
@@ -1686,7 +1700,7 @@
         <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="6:7">
@@ -1694,7 +1708,7 @@
         <v>59</v>
       </c>
       <c r="G68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="6:7">
@@ -1702,7 +1716,7 @@
         <v>59</v>
       </c>
       <c r="G69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="6:7">
@@ -1710,7 +1724,7 @@
         <v>59</v>
       </c>
       <c r="G70" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="6:7">
@@ -1718,7 +1732,7 @@
         <v>59</v>
       </c>
       <c r="G71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="6:7">
@@ -1726,7 +1740,7 @@
         <v>59</v>
       </c>
       <c r="G72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="6:7">
@@ -1734,7 +1748,7 @@
         <v>59</v>
       </c>
       <c r="G73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="6:7">
@@ -1742,7 +1756,7 @@
         <v>59</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="6:7">
@@ -1750,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="6:7">
@@ -1758,7 +1772,7 @@
         <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="6:7">
@@ -1766,7 +1780,7 @@
         <v>59</v>
       </c>
       <c r="G77" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="6:7">
@@ -1774,7 +1788,7 @@
         <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="6:7">
@@ -1782,7 +1796,7 @@
         <v>59</v>
       </c>
       <c r="G79" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="6:7">
@@ -1790,7 +1804,7 @@
         <v>59</v>
       </c>
       <c r="G80" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="6:7">
@@ -1798,7 +1812,7 @@
         <v>59</v>
       </c>
       <c r="G81" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="6:7">
@@ -1806,7 +1820,7 @@
         <v>59</v>
       </c>
       <c r="G82" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="6:7">
@@ -1814,7 +1828,7 @@
         <v>59</v>
       </c>
       <c r="G83" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="6:7">
@@ -1822,7 +1836,7 @@
         <v>59</v>
       </c>
       <c r="G84" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="6:7">
@@ -1830,7 +1844,7 @@
         <v>59</v>
       </c>
       <c r="G85" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="6:7">
@@ -1838,7 +1852,7 @@
         <v>59</v>
       </c>
       <c r="G86" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1910,7 +1924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="13.05">
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>38</v>
       </c>
@@ -1921,7 +1935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="13.05">
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>64</v>
       </c>
@@ -1932,7 +1946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="13.05">
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>66</v>
       </c>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\knowledgebase-service\src\main\resources\script\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\knowledgebase-service-0712\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC3A0EA-245F-414D-90C8-11B90674599A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="32340" windowHeight="20544" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -71,9 +72,6 @@
   </si>
   <si>
     <t>page</t>
-  </si>
-  <si>
-    <t>/knowledge/project</t>
   </si>
   <si>
     <t>project</t>
@@ -556,11 +554,18 @@
   <si>
     <t>knowledgebase-service.page-log-organization.listByPageId</t>
   </si>
+  <si>
+    <t>/knowledge/project/base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base-service.organization-project.listProjectsByOrgId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -923,29 +928,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="53.5546875" customWidth="1"/>
-    <col min="7" max="7" width="41.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:15" ht="12.75" customHeight="1">
@@ -983,24 +988,24 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="4:15">
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1027,31 +1032,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="45.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" customWidth="1"/>
-    <col min="9" max="9" width="49.44140625" customWidth="1"/>
-    <col min="10" max="10" width="34.44140625" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1060,66 +1065,66 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="4:17">
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
         <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
       </c>
       <c r="O8">
         <v>60</v>
@@ -1137,49 +1142,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="13.8">
+    <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="F9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1189,670 +1194,678 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D7:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="G95" sqref="G94:G95"/>
+    <sheetView tabSelected="1" topLeftCell="E85" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" customWidth="1"/>
-    <col min="7" max="7" width="69.44140625" customWidth="1"/>
-    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="4:8">
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="4:8">
       <c r="F9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="4:8">
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="4:8">
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="4:8">
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="4:8">
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="4:8">
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="4:8">
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="4:8">
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G86" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1867,94 +1880,94 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="13.8">
+    <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" ht="13.8">
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="13.8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="4:9">
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1964,30 +1977,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.77734375" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:19">
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -1996,76 +2009,76 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="S7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="4:19">
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="O8" s="4">
         <v>3</v>
@@ -2077,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S8" s="4">
         <v>1</v>
@@ -2086,34 +2099,34 @@
     <row r="9" spans="4:19">
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="O9" s="4">
         <v>5</v>
@@ -2125,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S9" s="4">
         <v>1</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\knowledgebase-service-0712\knowledgebase-service\src\main\resources\script\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC3A0EA-245F-414D-90C8-11B90674599A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -555,17 +554,17 @@
     <t>knowledgebase-service.page-log-organization.listByPageId</t>
   </si>
   <si>
-    <t>/knowledge/project/base</t>
+    <t>base-service.organization-project.listProjectsByOrgId</t>
+  </si>
+  <si>
+    <t>/knowledge/project</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>base-service.organization-project.listProjectsByOrgId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -928,29 +927,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="53.5546875" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:15" ht="12.75" customHeight="1">
@@ -996,7 +995,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -1032,7 +1031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -1041,17 +1040,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="49.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.44140625" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17" ht="12.75" customHeight="1">
@@ -1142,22 +1141,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" spans="4:7" ht="13.8">
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1194,21 +1193,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E85" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" customWidth="1"/>
-    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
@@ -1865,7 +1864,7 @@
         <v>58</v>
       </c>
       <c r="G87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1880,22 +1879,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="13.8">
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" ht="13.8">
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" ht="13.8">
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1977,24 +1976,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:S9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\knowledgebase-service\src\main\resources\script\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\knowledgebase-service-0712\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAFBA07-0869-4BEB-B68C-9C9D96FD7B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -551,20 +552,72 @@
     <t>knowledgebase-service.work-space-share-organization.updateShare</t>
   </si>
   <si>
+    <t>/knowledge/project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base-service.organization-project.listProjectsByOrgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.cooperate.knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>knowledgebase-service.page-log-organization.listByPageId</t>
-  </si>
-  <si>
-    <t>base-service.organization-project.listProjectsByOrgId</t>
-  </si>
-  <si>
-    <t>/knowledge/project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.recycle-project.pageByOptions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.knowledge-base.queryKnowledgeBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.knowledge-base.removeKnowledgeBase</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.project-operate.pageProjectInfo</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.listSystemTemplate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.knowledge-base.updateKnowledgeBase</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.recycle-project.deleteWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.recycle-project.restoreWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.knowledge-base.createKnowledgeBase</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.listTemplate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.create</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.updateTemplate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.removeWorkSpaceAndPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.uploadAttach</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -927,29 +980,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="53.5546875" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:15" ht="12.75" customHeight="1">
@@ -995,7 +1048,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -1031,26 +1084,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="45.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="49.44140625" customWidth="1"/>
-    <col min="10" max="10" width="34.44140625" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17" ht="12.75" customHeight="1">
@@ -1141,22 +1194,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="13.8">
+    <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1193,21 +1246,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D7:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" customWidth="1"/>
-    <col min="7" max="7" width="69.44140625" customWidth="1"/>
-    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
@@ -1855,16 +1908,128 @@
       <c r="F86" t="s">
         <v>58</v>
       </c>
-      <c r="G86" t="s">
-        <v>153</v>
+      <c r="G86" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
         <v>58</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="5" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7">
+      <c r="F92" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7">
+      <c r="F93" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7">
+      <c r="F94" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7">
+      <c r="F95" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7">
+      <c r="F96" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7">
+      <c r="F100" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7">
+      <c r="F101" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1879,22 +2044,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="13.8">
+    <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +2079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="13.8">
+    <row r="8" spans="4:9">
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1925,7 +2090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="13.8">
+    <row r="9" spans="4:9">
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1976,24 +2141,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:S9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\knowledgebase-service-0712\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAFBA07-0869-4BEB-B68C-9C9D96FD7B37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159E01D-1191-434C-9FB7-3CED3A6FA294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="172">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -612,6 +612,9 @@
   <si>
     <t>knowledgebase-service.document-template.uploadAttach</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.belongToBaseDelete</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H101"/>
+  <dimension ref="D7:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2030,6 +2033,14 @@
       </c>
       <c r="G101" s="5" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7">
+      <c r="F102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\knowledgebase-service-0712\knowledgebase-service\src\main\resources\script\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159E01D-1191-434C-9FB7-3CED3A6FA294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -438,189 +437,191 @@
     <t>knowledgebase-service.page-log-project.listByPageId</t>
   </si>
   <si>
+    <t>knowledgebase-service.work-space-organization.createWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryAllTreeList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.deleteWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.querySpaceByIds</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.recentUpdateList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.recycleWorkspaceTree</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.removeWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.removeWorkSpaceAndPageByMyWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.restoreWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.moveWorkSpace</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryWorkSpaceInfo</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.updateWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.create</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.deleteMyComment</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.queryByPageId</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.update</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-comment-organization.deleteComment</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.createPageByImport</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.autoSavePage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.queryDraftPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.exportMd2Pdf</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.fullTextSearch</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.importDocx2Md</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.create</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.batchDelete</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.queryByList</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.queryByFileName</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.uploadForAddress</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-attachment-organization.delete</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-organization.compareVersion</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-organization.listQuery</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-organization.rollbackVersion</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-version-organization.queryById</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.user-setting-organization.createOrUpdate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-share-organization.queryShare</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-share-organization.updateShare</t>
+  </si>
+  <si>
+    <t>/knowledge/project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base-service.organization-project.listProjectsByOrgId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.cooperate.knowledge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-log-organization.listByPageId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.recycle-project.pageByOptions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.knowledge-base.queryKnowledgeBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.knowledge-base.removeKnowledgeBase</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.project-operate.pageProjectInfo</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.listSystemTemplate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.knowledge-base.updateKnowledgeBase</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.recycle-project.deleteWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.recycle-project.restoreWorkSpaceAndPage</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.knowledge-base.createKnowledgeBase</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.listTemplate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.create</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.updateTemplate</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.removeWorkSpaceAndPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.document-template.uploadAttach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.belongToBaseDelete</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.page-organization.deleteDraftContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>knowledgebase-service.work-space-organization.queryAllSpaceByOptions</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.createWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.queryAllTreeList</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.deleteWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.querySpaceByIds</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.recentUpdateList</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.recycleWorkspaceTree</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.removeWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.removeWorkSpaceAndPageByMyWorkSpace</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.restoreWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.moveWorkSpace</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.queryWorkSpaceInfo</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.updateWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-organization.create</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-organization.deleteMyComment</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-organization.queryByPageId</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-organization.update</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-comment-organization.deleteComment</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-organization.createPageByImport</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-organization.autoSavePage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-organization.deleteDraftContent</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-organization.queryDraftPage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-organization.exportMd2Pdf</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-organization.fullTextSearch</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-organization.importDocx2Md</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-organization.create</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-organization.batchDelete</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-organization.queryByList</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-organization.queryByFileName</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-organization.uploadForAddress</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-attachment-organization.delete</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-version-organization.compareVersion</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-version-organization.listQuery</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-version-organization.rollbackVersion</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-version-organization.queryById</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.user-setting-organization.createOrUpdate</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-share-organization.queryShare</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-share-organization.updateShare</t>
-  </si>
-  <si>
-    <t>/knowledge/project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>base-service.organization-project.listProjectsByOrgId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.cooperate.knowledge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowledgebase-service.page-log-organization.listByPageId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowledgebase-service.recycle-project.pageByOptions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowledgebase-service.knowledge-base.queryKnowledgeBase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowledgebase-service.knowledge-base.removeKnowledgeBase</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.project-operate.pageProjectInfo</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.listSystemTemplate</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.knowledge-base.updateKnowledgeBase</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.recycle-project.deleteWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.recycle-project.restoreWorkSpaceAndPage</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.knowledge-base.createKnowledgeBase</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.listTemplate</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.create</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.updateTemplate</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.removeWorkSpaceAndPage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowledgebase-service.document-template.uploadAttach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.belongToBaseDelete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -983,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O8"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -992,20 +993,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="53.5546875" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:15" ht="12.75" customHeight="1">
@@ -1051,7 +1052,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -1087,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -1096,17 +1097,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="49.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.44140625" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17" ht="12.75" customHeight="1">
@@ -1197,22 +1198,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
+    <row r="7" spans="4:7" ht="13.8">
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1249,21 +1250,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" customWidth="1"/>
-    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" customWidth="1"/>
+    <col min="7" max="7" width="69.44140625" customWidth="1"/>
+    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
@@ -1483,7 +1484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:8">
       <c r="F33" t="s">
         <v>58</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:8">
       <c r="F34" t="s">
         <v>58</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:8">
       <c r="F35" t="s">
         <v>58</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:8">
       <c r="F36" t="s">
         <v>58</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:8">
       <c r="F37" t="s">
         <v>58</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:8">
       <c r="F38" t="s">
         <v>58</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:8">
       <c r="F39" t="s">
         <v>58</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="6:8">
       <c r="F40" t="s">
         <v>58</v>
       </c>
@@ -1547,7 +1548,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:8">
       <c r="F41" t="s">
         <v>58</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="6:8">
       <c r="F42" t="s">
         <v>58</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="6:8">
       <c r="F43" t="s">
         <v>58</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="6:7">
+    <row r="44" spans="6:8">
       <c r="F44" t="s">
         <v>58</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="6:7">
+    <row r="45" spans="6:8">
       <c r="F45" t="s">
         <v>58</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="6:7">
+    <row r="46" spans="6:8">
       <c r="F46" t="s">
         <v>58</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="6:7">
+    <row r="47" spans="6:8">
       <c r="F47" t="s">
         <v>58</v>
       </c>
@@ -1603,444 +1604,564 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="6:7">
+    <row r="48" spans="6:8">
       <c r="F48" t="s">
         <v>58</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="49" spans="6:7">
-      <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="6:7">
-      <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8">
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" spans="6:7">
-      <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8">
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="6:7">
-      <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="53" spans="6:7">
-      <c r="F53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="6:7">
-      <c r="F54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="55" spans="6:7">
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="6:7">
-      <c r="F56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" spans="6:7">
-      <c r="F57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="6:7">
-      <c r="F58" t="s">
-        <v>58</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="59" spans="6:7">
-      <c r="F59" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="60" spans="6:7">
-      <c r="F60" t="s">
-        <v>58</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" spans="6:7">
-      <c r="F61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8">
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="62" spans="6:7">
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="63" spans="6:7">
-      <c r="F63" t="s">
-        <v>58</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="64" spans="6:7">
-      <c r="F64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="65" spans="6:7">
-      <c r="F65" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" spans="6:7">
-      <c r="F66" t="s">
-        <v>58</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="67" spans="6:7">
-      <c r="F67" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="F68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8">
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="6:7">
-      <c r="F68" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8">
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="6:7">
-      <c r="F69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8">
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="6:7">
-      <c r="F70" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8">
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="6:7">
-      <c r="F71" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8">
+      <c r="F73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="6:7">
-      <c r="F72" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8">
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="73" spans="6:7">
-      <c r="F73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8">
+      <c r="F75" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="6:7">
-      <c r="F74" t="s">
-        <v>58</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8">
+      <c r="F76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="75" spans="6:7">
-      <c r="F75" t="s">
-        <v>58</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8">
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="6:7">
-      <c r="F76" t="s">
-        <v>58</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8">
+      <c r="F78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="77" spans="6:7">
-      <c r="F77" t="s">
-        <v>58</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8">
+      <c r="F79" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="78" spans="6:7">
-      <c r="F78" t="s">
-        <v>58</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8">
+      <c r="F80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="79" spans="6:7">
-      <c r="F79" t="s">
-        <v>58</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8">
+      <c r="F81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="80" spans="6:7">
-      <c r="F80" t="s">
-        <v>58</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8">
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="81" spans="6:7">
-      <c r="F81" t="s">
-        <v>58</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8">
+      <c r="F83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="82" spans="6:7">
-      <c r="F82" t="s">
-        <v>58</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8">
+      <c r="F84" t="s">
+        <v>58</v>
+      </c>
+      <c r="G84" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="83" spans="6:7">
-      <c r="F83" t="s">
-        <v>58</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8">
+      <c r="F85" t="s">
+        <v>58</v>
+      </c>
+      <c r="G85" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="84" spans="6:7">
-      <c r="F84" t="s">
-        <v>58</v>
-      </c>
-      <c r="G84" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="6:7">
-      <c r="F85" t="s">
-        <v>58</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8">
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8">
+      <c r="F87" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="6:7">
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-      <c r="G86" s="5" t="s">
+    <row r="88" spans="6:8">
+      <c r="F88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8">
+      <c r="F89" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="6:7">
-      <c r="F87" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="6:7">
-      <c r="F88" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G88" s="5" t="s">
+    <row r="90" spans="6:8">
+      <c r="F90" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="6:7">
-      <c r="F89" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G89" s="5" t="s">
+    <row r="91" spans="6:8">
+      <c r="F91" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="6:7">
-      <c r="F90" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G90" s="5" t="s">
+    <row r="92" spans="6:8">
+      <c r="F92" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="6:7">
-      <c r="F91" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G91" s="5" t="s">
+    <row r="93" spans="6:8">
+      <c r="F93" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="6:7">
-      <c r="F92" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G92" s="5" t="s">
+    <row r="94" spans="6:8">
+      <c r="F94" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="6:7">
-      <c r="F93" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G93" s="5" t="s">
+    <row r="95" spans="6:8">
+      <c r="F95" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="6:7">
-      <c r="F94" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G94" s="5" t="s">
+    <row r="96" spans="6:8">
+      <c r="F96" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="6:7">
-      <c r="F95" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G95" s="5" t="s">
+    <row r="97" spans="6:8">
+      <c r="F97" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="6:7">
-      <c r="F96" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G96" s="5" t="s">
+    <row r="98" spans="6:8">
+      <c r="F98" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="6:7">
-      <c r="F97" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G97" s="5" t="s">
+    <row r="99" spans="6:8">
+      <c r="F99" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="6:7">
-      <c r="F98" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G98" s="5" t="s">
+    <row r="100" spans="6:8">
+      <c r="F100" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="6:7">
-      <c r="F99" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G99" s="5" t="s">
+    <row r="101" spans="6:8">
+      <c r="F101" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="6:7">
-      <c r="F100" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G100" s="5" t="s">
+    <row r="102" spans="6:8">
+      <c r="F102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="101" spans="6:7">
-      <c r="F101" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7">
-      <c r="F102" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G102" t="s">
-        <v>171</v>
+      <c r="H102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2055,22 +2176,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="13.8">
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2090,7 +2211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" ht="13.8">
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2101,7 +2222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:9">
+    <row r="9" spans="4:9" ht="13.8">
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2152,24 +2273,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:S9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\knowledgebase-service\src\main\resources\script\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\HAND\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40575A8-9A58-470B-B4A7-CDD7C10C87B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="174">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -617,11 +618,18 @@
     <t>knowledgebase-service.work-space-organization.queryAllSpaceByOptions</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>REQUIRED</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -984,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O8"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -993,20 +1001,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="53.5546875" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="16" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:15" ht="12.75" customHeight="1">
@@ -1088,7 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -1097,17 +1105,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="45.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="49.44140625" customWidth="1"/>
-    <col min="10" max="10" width="34.44140625" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
     <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:17" ht="12.75" customHeight="1">
@@ -1198,22 +1206,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="13.8">
+    <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1250,24 +1258,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="D7:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" customWidth="1"/>
-    <col min="7" max="7" width="69.44140625" customWidth="1"/>
-    <col min="8" max="1025" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" customWidth="1"/>
+    <col min="8" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" spans="4:9" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1283,335 +1291,458 @@
       <c r="H7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="4:8">
+      <c r="I7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
       <c r="F8" t="s">
         <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="4:8">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
       <c r="F9" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="4:8">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9">
       <c r="F10" t="s">
         <v>58</v>
       </c>
       <c r="G10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="4:8">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9">
       <c r="F11" t="s">
         <v>58</v>
       </c>
       <c r="G11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="4:8">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9">
       <c r="F12" t="s">
         <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="4:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9">
       <c r="F13" t="s">
         <v>58</v>
       </c>
       <c r="G13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="4:8">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9">
       <c r="F14" t="s">
         <v>58</v>
       </c>
       <c r="G14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="4:8">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9">
       <c r="F15" t="s">
         <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="4:8">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9">
       <c r="F16" t="s">
         <v>58</v>
       </c>
       <c r="G16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="6:7">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
       <c r="F17" t="s">
         <v>58</v>
       </c>
       <c r="G17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="6:7">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9">
       <c r="F18" t="s">
         <v>58</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="6:7">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
       <c r="F19" t="s">
         <v>58</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="6:7">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9">
       <c r="F20" t="s">
         <v>58</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="6:7">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
       <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="6:7">
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="6:7">
-      <c r="F27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="6:7">
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="6:7">
-      <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="6:7">
-      <c r="F31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="6:7">
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9">
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="6:8">
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9">
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9">
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="6:8">
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9">
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="6:8">
-      <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9">
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9">
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9">
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="6:8">
-      <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9">
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9">
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="6:8">
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9">
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="6:8">
-      <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9">
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="6:8">
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9">
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="44" spans="6:8">
-      <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9">
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="45" spans="6:8">
-      <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9">
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="6:8">
-      <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9">
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="47" spans="6:8">
-      <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9">
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="48" spans="6:8">
-      <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H48">
+      <c r="I48">
         <v>1</v>
       </c>
     </row>
@@ -1619,8 +1750,8 @@
       <c r="F49" t="s">
         <v>58</v>
       </c>
-      <c r="G49" t="s">
-        <v>115</v>
+      <c r="G49" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -1631,7 +1762,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -1642,7 +1773,7 @@
         <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -1653,7 +1784,7 @@
         <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -1664,7 +1795,7 @@
         <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -1675,7 +1806,7 @@
         <v>58</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -1686,7 +1817,7 @@
         <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -1697,7 +1828,7 @@
         <v>58</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -1708,7 +1839,7 @@
         <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -1719,7 +1850,7 @@
         <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -1730,7 +1861,7 @@
         <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -1741,7 +1872,7 @@
         <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -1752,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -1763,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -1774,7 +1905,7 @@
         <v>58</v>
       </c>
       <c r="G63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -1785,7 +1916,7 @@
         <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -1796,7 +1927,7 @@
         <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -1807,7 +1938,7 @@
         <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -1818,7 +1949,7 @@
         <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -1828,8 +1959,8 @@
       <c r="F68" t="s">
         <v>58</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>170</v>
+      <c r="G68" t="s">
+        <v>133</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -1839,8 +1970,8 @@
       <c r="F69" t="s">
         <v>58</v>
       </c>
-      <c r="G69" t="s">
-        <v>134</v>
+      <c r="G69" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -1851,7 +1982,7 @@
         <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -1862,7 +1993,7 @@
         <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -1873,7 +2004,7 @@
         <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -1884,7 +2015,7 @@
         <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -1895,7 +2026,7 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -1906,7 +2037,7 @@
         <v>58</v>
       </c>
       <c r="G75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -1917,7 +2048,7 @@
         <v>58</v>
       </c>
       <c r="G76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -1928,7 +2059,7 @@
         <v>58</v>
       </c>
       <c r="G77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -1939,7 +2070,7 @@
         <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -1950,7 +2081,7 @@
         <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -1961,206 +2092,262 @@
         <v>58</v>
       </c>
       <c r="G80" t="s">
+        <v>144</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9">
+      <c r="F81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" t="s">
         <v>145</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="6:8">
-      <c r="F81" t="s">
-        <v>58</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9">
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" t="s">
         <v>146</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="6:8">
-      <c r="F82" t="s">
-        <v>58</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9">
+      <c r="F83" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" t="s">
         <v>147</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="6:8">
-      <c r="F83" t="s">
-        <v>58</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9">
+      <c r="F84" t="s">
+        <v>58</v>
+      </c>
+      <c r="G84" t="s">
         <v>148</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="6:8">
-      <c r="F84" t="s">
-        <v>58</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9">
+      <c r="F85" t="s">
+        <v>58</v>
+      </c>
+      <c r="G85" t="s">
         <v>149</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="6:8">
-      <c r="F85" t="s">
-        <v>58</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9">
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" t="s">
         <v>150</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="6:8">
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-      <c r="G86" s="5" t="s">
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9">
+      <c r="F87" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="6:8">
-      <c r="F87" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" s="5" t="s">
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9">
+      <c r="F88" t="s">
+        <v>58</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="88" spans="6:8">
-      <c r="F88" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="6:8">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9">
       <c r="F89" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="6:8">
+        <v>155</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9">
       <c r="F90" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="6:8">
+        <v>156</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9">
       <c r="F91" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="6:8">
+        <v>157</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9">
       <c r="F92" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="93" spans="6:8">
+        <v>158</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9">
       <c r="F93" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="6:8">
+        <v>159</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9">
       <c r="F94" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="6:8">
+        <v>160</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9">
       <c r="F95" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="6:8">
+        <v>161</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9">
       <c r="F96" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="6:8">
+        <v>162</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9">
       <c r="F97" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="6:8">
+        <v>163</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9">
       <c r="F98" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="6:8">
+        <v>164</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9">
       <c r="F99" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="6:8">
+        <v>165</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9">
       <c r="F100" s="5" t="s">
         <v>153</v>
       </c>
       <c r="G100" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="6:9">
+      <c r="F101" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="101" spans="6:8">
-      <c r="F101" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G101" s="5" t="s">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="6:9">
+      <c r="F102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="102" spans="6:8">
-      <c r="F102" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="6:9">
+      <c r="F103" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" t="s">
         <v>169</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <v>1</v>
       </c>
     </row>
@@ -2176,22 +2363,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="13.8">
+    <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2211,7 +2398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="13.8">
+    <row r="8" spans="4:9">
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2222,7 +2409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="13.8">
+    <row r="9" spans="4:9">
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,24 +2460,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D7:S9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\HAND\knowledgebase-service\src\main\resources\script\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40575A8-9A58-470B-B4A7-CDD7C10C87B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B895A5-8DED-49F0-B4AF-65CBA824EF2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2181,6 +2181,9 @@
       </c>
       <c r="G88" s="5" t="s">
         <v>152</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
       </c>
       <c r="I88">
         <v>1</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\knowledgebase-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B895A5-8DED-49F0-B4AF-65CBA824EF2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B0E82-90DC-4D04-89ED-6FB468F29E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>@SORT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OFFICIAL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -623,6 +619,10 @@
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -688,9 +688,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,11 +1056,11 @@
       </c>
     </row>
     <row r="8" spans="4:15">
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>151</v>
+      <c r="G8" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1152,8 +1152,8 @@
       <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>64</v>
+      <c r="O7" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="P7" t="s">
         <v>26</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="8" spans="4:17">
       <c r="F8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>56</v>
@@ -1175,8 +1175,8 @@
       <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>75</v>
+      <c r="J8" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="K8" t="s">
         <v>62</v>
@@ -1223,21 +1223,21 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="F8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
         <v>59</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="9" spans="4:7">
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>59</v>
@@ -1261,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
@@ -1292,12 +1292,12 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>59</v>
@@ -1307,11 +1307,11 @@
       </c>
     </row>
     <row r="9" spans="4:9">
-      <c r="F9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>76</v>
+      <c r="F9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1442,8 +1442,8 @@
       <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>173</v>
+      <c r="G21" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1553,7 +1553,7 @@
         <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1564,7 +1564,7 @@
         <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1597,7 +1597,7 @@
         <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1663,7 +1663,7 @@
         <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1674,7 +1674,7 @@
         <v>58</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -1718,7 +1718,7 @@
         <v>58</v>
       </c>
       <c r="G46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>58</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -1750,8 +1750,8 @@
       <c r="F49" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>171</v>
+      <c r="G49" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>58</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>58</v>
       </c>
       <c r="G56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>58</v>
       </c>
       <c r="G58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -1872,7 +1872,7 @@
         <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>58</v>
       </c>
       <c r="G63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -1938,7 +1938,7 @@
         <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -1949,7 +1949,7 @@
         <v>58</v>
       </c>
       <c r="G67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -1960,7 +1960,7 @@
         <v>58</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -1970,8 +1970,8 @@
       <c r="F69" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>170</v>
+      <c r="G69" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>58</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>58</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>58</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>58</v>
       </c>
       <c r="G75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -2048,7 +2048,7 @@
         <v>58</v>
       </c>
       <c r="G76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>58</v>
       </c>
       <c r="G77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         <v>58</v>
       </c>
       <c r="G81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -2114,7 +2114,7 @@
         <v>58</v>
       </c>
       <c r="G82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -2125,7 +2125,7 @@
         <v>58</v>
       </c>
       <c r="G83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -2136,7 +2136,7 @@
         <v>58</v>
       </c>
       <c r="G84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -2147,7 +2147,7 @@
         <v>58</v>
       </c>
       <c r="G85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>58</v>
       </c>
       <c r="G86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -2168,8 +2168,8 @@
       <c r="F87" t="s">
         <v>58</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>154</v>
+      <c r="G87" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -2179,176 +2179,176 @@
       <c r="F88" t="s">
         <v>58</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9">
+      <c r="F89" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="6:9">
-      <c r="F89" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9">
+      <c r="F90" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="6:9">
-      <c r="F90" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G90" s="5" t="s">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9">
+      <c r="F91" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="6:9">
-      <c r="F91" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G91" s="5" t="s">
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9">
+      <c r="F92" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="6:9">
-      <c r="F92" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G92" s="5" t="s">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9">
+      <c r="F93" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="6:9">
-      <c r="F93" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G93" s="5" t="s">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9">
+      <c r="F94" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="6:9">
-      <c r="F94" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9">
+      <c r="F95" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="6:9">
-      <c r="F95" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G95" s="5" t="s">
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="6:9">
+      <c r="F96" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="6:9">
-      <c r="F96" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G96" s="5" t="s">
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9">
+      <c r="F97" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G97" s="5" t="s">
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9">
+      <c r="F98" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="6:9">
-      <c r="F98" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="5" t="s">
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9">
+      <c r="F99" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="6:9">
-      <c r="F99" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G99" s="5" t="s">
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9">
+      <c r="F100" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="6:9">
-      <c r="F100" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G100" s="5" t="s">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="6:9">
+      <c r="F101" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="6:9">
-      <c r="F101" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G101" s="5" t="s">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="6:9">
+      <c r="F102" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="6:9">
-      <c r="F102" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G102" s="5" t="s">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="6:9">
+      <c r="F103" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" t="s">
         <v>168</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="6:9">
-      <c r="F103" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G103" t="s">
-        <v>169</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="12" spans="4:9">
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
         <v>58</v>
@@ -2485,148 +2485,148 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:19">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="4:19">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>3</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4" t="s">
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:19">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>5</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>1</v>
       </c>
     </row>
